--- a/resources/labs/0_YarnCalcs.xlsx
+++ b/resources/labs/0_YarnCalcs.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="171">
   <si>
     <t>Machine Configuration</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>1 Gigabit Ethernet</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>STEP 2: Worker Host Planning</t>
@@ -2080,7 +2083,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2216,9 +2219,14 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -2250,7 +2258,7 @@
     </row>
     <row r="16" customFormat="false" ht="79" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2262,31 +2270,31 @@
     </row>
     <row r="18" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" s="10" t="n">
         <v>1</v>
@@ -2295,17 +2303,17 @@
         <v>8192</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" s="10" t="n">
         <v>0</v>
@@ -2314,17 +2322,17 @@
         <v>8192</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="10" t="n">
         <v>1</v>
@@ -2333,17 +2341,17 @@
         <v>1024</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" s="10" t="n">
         <v>0</v>
@@ -2352,17 +2360,17 @@
         <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="10" t="n">
         <v>1</v>
@@ -2371,17 +2379,17 @@
         <v>1024</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" s="10" t="n">
         <v>0</v>
@@ -2390,17 +2398,17 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" s="10" t="n">
         <v>0</v>
@@ -2409,17 +2417,17 @@
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" s="10" t="n">
         <v>0</v>
@@ -2428,17 +2436,17 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" s="10" t="n">
         <v>1</v>
@@ -2447,12 +2455,12 @@
         <v>1024</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2468,7 +2476,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2476,12 +2484,12 @@
         <v>4</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2490,12 +2498,12 @@
         <v>64</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2504,12 +2512,12 @@
         <v>111616</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2521,7 +2529,7 @@
     </row>
     <row r="35" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2538,7 +2546,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2622,7 +2630,7 @@
     </row>
     <row r="2" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2632,7 +2640,7 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -2643,7 +2651,7 @@
     </row>
     <row r="5" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2655,19 +2663,19 @@
     </row>
     <row r="7" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2678,12 +2686,12 @@
         <v>64</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2694,12 +2702,12 @@
         <v>111616</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2710,7 +2718,7 @@
     </row>
     <row r="12" customFormat="false" ht="67" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2722,22 +2730,22 @@
     </row>
     <row r="14" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2748,12 +2756,12 @@
         <v>640</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2764,12 +2772,12 @@
         <v>1090</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2780,7 +2788,7 @@
     </row>
     <row r="19" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2792,14 +2800,14 @@
     </row>
     <row r="21" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>5</v>
@@ -2807,7 +2815,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2817,12 +2825,12 @@
         <v>1</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2832,12 +2840,12 @@
         <v>1</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2847,24 +2855,24 @@
         <v>1</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2874,12 +2882,12 @@
         <v>1024</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2889,12 +2897,12 @@
         <v>8192</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2904,12 +2912,12 @@
         <v>512</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -2920,7 +2928,7 @@
     </row>
     <row r="33" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2932,19 +2940,19 @@
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2957,7 +2965,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2970,7 +2978,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2983,7 +2991,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2996,7 +3004,7 @@
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3007,7 +3015,7 @@
     </row>
     <row r="42" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3019,10 +3027,10 @@
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>5</v>
@@ -3030,7 +3038,7 @@
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -3040,7 +3048,7 @@
         <v>GOOD</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -3048,7 +3056,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -3058,12 +3066,12 @@
         <v>GOOD</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -3073,12 +3081,12 @@
         <v>GOOD</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -3088,12 +3096,12 @@
         <v>GOOD</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -3103,12 +3111,12 @@
         <v>GOOD</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -3118,12 +3126,12 @@
         <v>GOOD</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3133,7 +3141,7 @@
         <v>GOOD</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3231,7 @@
     <row r="1" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -3235,7 +3243,7 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -3246,16 +3254,16 @@
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>5</v>
@@ -3263,217 +3271,217 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H7" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H8" s="10" t="n">
         <v>1024</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H9" s="10" t="n">
         <v>1024</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H11" s="10" t="n">
         <v>1024</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H12" s="10" t="n">
         <v>1024</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H13" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>1024</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H15" s="10" t="n">
         <v>1024</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H16" s="10" t="n">
         <v>256</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -3484,7 +3492,7 @@
     </row>
     <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3496,10 +3504,10 @@
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
@@ -3508,70 +3516,70 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="25" t="str">
         <f aca="false">IF(AppMasterCpuVcores&gt;=SchedulerMinAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F23" s="25" t="str">
         <f aca="false">IF(AppMasterCpuVcores&lt;=SchedulerMaxAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="25" t="str">
         <f aca="false">IF(AppMasterMemory&gt;=SchedulerMinAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F25" s="25" t="str">
         <f aca="false">IF(AppMasterMemory&lt;=SchedulerMaxAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="25" t="str">
         <f aca="false">IF((AppMasterJavaHeap/AppMasterMemory)&gt;1,"BAD",IF((AppMasterJavaHeap/AppMasterMemory)&gt;=0.9,"GOOD",IF((AppMasterJavaHeap/AppMasterMemory)&gt;=0.5,"WARN","BAD")))</f>
         <v>GOOD</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>5</v>
@@ -3579,82 +3587,82 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F29" s="25" t="str">
         <f aca="false">IF(MapTaskCpuVcores&gt;=SchedulerMinAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" s="25" t="str">
         <f aca="false">IF(MapTaskCpuVcores&lt;=SchedulerMaxAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F31" s="25" t="str">
         <f aca="false">IF(MapTaskMemory&gt;=SchedulerMinAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F32" s="25" t="str">
         <f aca="false">IF(MapTaskMemory&lt;=SchedulerMaxAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F33" s="25" t="str">
         <f aca="false">IF((MapTaskJavaHeap/MapTaskMemory)&gt;1,"BAD",IF((MapTaskJavaHeap/MapTaskMemory)&gt;=0.9,"GOOD",IF((MapTaskJavaHeap/MapTaskMemory)&gt;=0.5,"WARN","BAD")))</f>
         <v>GOOD</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F34" s="25" t="str">
         <f aca="false">IF((MapTaskJavaHeap-MapTaskIoSortMb)&gt;=768,"GOOD",IF((MapTaskJavaHeap-MapTaskIoSortMb)&gt;=384,"WARN","BAD"))</f>
         <v>GOOD</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>5</v>
@@ -3662,62 +3670,62 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F37" s="25" t="str">
         <f aca="false">IF(ReduceTaskCpuVcores&gt;=SchedulerMinAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F38" s="25" t="str">
         <f aca="false">IF(ReduceTaskCpuVcores&lt;=SchedulerMaxAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F39" s="25" t="str">
         <f aca="false">IF(ReduceTaskMemory&gt;=SchedulerMinAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F40" s="25" t="str">
         <f aca="false">IF(ReduceTaskMemory&lt;=SchedulerMaxAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F41" s="25" t="str">
         <f aca="false">IF((ReduceTaskJavaHeap/ReduceTaskMemory)&gt;1,"BAD",IF((ReduceTaskJavaHeap/ReduceTaskMemory)&gt;=0.9,"GOOD",IF((ReduceTaskJavaHeap/ReduceTaskMemory)&gt;=0.5,"WARN","BAD")))</f>
         <v>GOOD</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
